--- a/data/output/Pedido_Semana_08_09022026_interior.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_interior.xlsx
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>112.5</v>
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>41.25</v>
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>18.8</v>
@@ -1134,7 +1134,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>14.4</v>
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>31.3</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>7.4</v>
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>50.95</v>
@@ -2592,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>41.7</v>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>59.47</v>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>88.5</v>
@@ -2835,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>46.25</v>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>14.78</v>
@@ -3645,7 +3645,7 @@
         <v>3</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="4" t="n">
         <v>28.6</v>
@@ -4131,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>39.4</v>
@@ -4212,7 +4212,7 @@
         <v>5</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>75.37</v>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>31.15</v>
@@ -4455,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>64.2</v>
@@ -4536,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="4" t="n">
         <v>12.45</v>
@@ -4698,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="4" t="n">
         <v>14.2</v>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M57" s="4" t="n">
         <v>6.55</v>
@@ -5427,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="4" t="n">
         <v>5.9</v>
@@ -5832,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="4" t="n">
         <v>15.8</v>
@@ -6480,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M74" s="4" t="n">
         <v>17.2</v>
@@ -6723,7 +6723,7 @@
         <v>13</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M77" s="4" t="n">
         <v>90.2</v>
@@ -6804,7 +6804,7 @@
         <v>16</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M78" s="4" t="n">
         <v>57.2</v>
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" s="4" t="n">
         <v>10.6</v>
@@ -7047,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M81" s="4" t="n">
         <v>3</v>
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="C96" s="8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_interior.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_interior.xlsx
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>4</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R3" s="3" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6" s="3" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" s="3" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" s="3" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3" t="n">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>6</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" s="3" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" s="3" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R24" s="3" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R26" s="3" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>4</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R27" s="3" t="n">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28" s="3" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="3" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="3" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="3" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="3" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R37" s="3" t="n">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R39" s="3" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>2</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40" s="3" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>4</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R44" s="3" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R45" s="3" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="3" t="n">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>16</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R49" s="3" t="n">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>8</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R50" s="3" t="n">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>6</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R55" s="3" t="n">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>3</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R57" s="3" t="n">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="3" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>4</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R67" s="3" t="n">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" s="3" t="n">
         <v>0</v>
@@ -6740,7 +6740,7 @@
         <v>54</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R77" s="3" t="n">
         <v>0</v>
@@ -6821,7 +6821,7 @@
         <v>68</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="R78" s="3" t="n">
         <v>0</v>
@@ -6902,7 +6902,7 @@
         <v>2</v>
       </c>
       <c r="Q79" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R79" s="3" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="Q81" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R81" s="3" t="n">
         <v>0</v>
@@ -7145,7 +7145,7 @@
         <v>3</v>
       </c>
       <c r="Q82" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="3" t="n">
         <v>0</v>
